--- a/TestData/Roles/Roles New TestData.xlsx
+++ b/TestData/Roles/Roles New TestData.xlsx
@@ -11,15 +11,12 @@
     <sheet name="TestCases" sheetId="2" r:id="rId2"/>
     <sheet name="Manual TestCases" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="91">
   <si>
     <t>S.No.</t>
   </si>
@@ -45,21 +42,6 @@
     <t>KeyWord</t>
   </si>
   <si>
-    <t>Locator</t>
-  </si>
-  <si>
-    <t>Test Data 1</t>
-  </si>
-  <si>
-    <t>TestData2</t>
-  </si>
-  <si>
-    <t>Test Data 3</t>
-  </si>
-  <si>
-    <t>TestData4</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -90,9 +72,6 @@
     <t>Click on Settings icon</t>
   </si>
   <si>
-    <t>Prodify.rolesNew.settings</t>
-  </si>
-  <si>
     <t>Click on Roles Field</t>
   </si>
   <si>
@@ -102,18 +81,12 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Roles</t>
-  </si>
-  <si>
     <t>Login to the Application and Navigate to Roles Page</t>
   </si>
   <si>
     <t>Click on New tab</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
     <t>Keep all Fields Blank and Click on cancel</t>
   </si>
   <si>
@@ -138,27 +111,15 @@
     <t>Create</t>
   </si>
   <si>
-    <t>Click on back arrow</t>
-  </si>
-  <si>
-    <t>Prodify.rolesNew.backArrow</t>
-  </si>
-  <si>
     <t>Enter Values in all the fields and click on Cancel</t>
   </si>
   <si>
     <t>Enter data in Name field</t>
   </si>
   <si>
-    <t>Prodify.rolesNew.nameField</t>
-  </si>
-  <si>
     <t>Enter data in description field</t>
   </si>
   <si>
-    <t>Prodify.rolesNew.descriptionField</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Check box </t>
   </si>
   <si>
@@ -186,24 +147,9 @@
     <t>Roles New Test5</t>
   </si>
   <si>
-    <t>Prodify.rolesNew.username</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>http://172.17.2.182:8081</t>
-  </si>
-  <si>
     <t>testwe@yopmail.com</t>
   </si>
   <si>
-    <t>Prodify.rolesNew.loginbutton</t>
-  </si>
-  <si>
-    <t>Prodify.rolesNew.password</t>
-  </si>
-  <si>
     <t>Prodifi.rolesNew.localeAddCheckBox</t>
   </si>
   <si>
@@ -220,13 +166,136 @@
   </si>
   <si>
     <t>TFS Id</t>
+  </si>
+  <si>
+    <t>Locator 1</t>
+  </si>
+  <si>
+    <t>Locator 2</t>
+  </si>
+  <si>
+    <t>TestData1</t>
+  </si>
+  <si>
+    <t>Test Data 2</t>
+  </si>
+  <si>
+    <t>TestData 3</t>
+  </si>
+  <si>
+    <t>http://prodifitest.mrrsoft.com:8081</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.username</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.loginbutton</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.settings</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.roles</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.new</t>
+  </si>
+  <si>
+    <t>IsDisabled</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.createDisabledField</t>
+  </si>
+  <si>
+    <t>Keep all Fields Blank and check if  Create field is disabled</t>
+  </si>
+  <si>
+    <t>Check for the Error message if the mandatory field is blank</t>
+  </si>
+  <si>
+    <t>Click on Name Field</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.nameField</t>
+  </si>
+  <si>
+    <t>Click on description field</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.descriptionField</t>
+  </si>
+  <si>
+    <t>Check for Validation for blank Role Name</t>
+  </si>
+  <si>
+    <t>ToolTipAssertion</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.blankNameToolTip</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.blankNameErrorMessage</t>
+  </si>
+  <si>
+    <t>Role Name is required</t>
+  </si>
+  <si>
+    <t>Accountant</t>
+  </si>
+  <si>
+    <t>abcdefgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on Locale Add Check box </t>
+  </si>
+  <si>
+    <t>Click on Locale Delete Check box</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.localeDeleteCheckBox</t>
+  </si>
+  <si>
+    <t>Click on Tenant Edit Check box</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.tenantEditCheckBox</t>
+  </si>
+  <si>
+    <t>Click on Tenant View Check box</t>
+  </si>
+  <si>
+    <t>Prodifi.rolesNew.tenantViewCheckBox</t>
+  </si>
+  <si>
+    <t>Click on Create button</t>
+  </si>
+  <si>
+    <t>Check on list page if created role exist</t>
+  </si>
+  <si>
+    <t>AssertionInList</t>
+  </si>
+  <si>
+    <t>Roles New Test6</t>
+  </si>
+  <si>
+    <t>Check if the created role exist in Role Landing Page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,25 +319,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF263238"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF263238"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -452,11 +506,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -477,25 +530,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -545,8 +595,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -557,23 +606,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TestSuite"/>
-      <sheetName val="TestCases"/>
-      <sheetName val="Manual TestCases"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -891,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
@@ -902,7 +934,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>3</v>
@@ -913,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -924,7 +956,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -935,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -977,38 +1009,32 @@
       <c r="C13" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C8">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C2:C8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21:G25"/>
+      <selection activeCell="D24" sqref="D24:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -1028,630 +1054,724 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B2" s="8">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>57</v>
+        <v>20</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="H2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B3" s="8">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B4" s="8">
         <v>3</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="26">
-        <v>123456</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
+        <v>58</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B5" s="8">
         <v>4</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D5" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+        <v>60</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B6" s="8">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="9" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+        <v>61</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B7" s="8">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+        <v>20</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="11">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="11">
         <v>8</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="11">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="14">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="14">
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="E12" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="12">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="15" t="s">
+      <c r="I12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="17">
+        <v>12</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="17">
+        <v>13</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="17">
+        <v>14</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="20">
+        <v>15</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="12">
-        <v>10</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="E16" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="20">
+        <v>16</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E17" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="20">
         <v>17</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="C18" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="17" t="s">
+      <c r="F18" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="20">
+        <v>18</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="20">
+        <v>20</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="20">
+        <v>21</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="16">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="16">
-        <v>13</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="16">
-        <v>14</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="19">
-        <v>15</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="19">
-        <v>16</v>
-      </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="I22" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="19">
-        <v>17</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="19">
-        <v>18</v>
-      </c>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="19">
-        <v>19</v>
-      </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="19">
-        <v>20</v>
-      </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="23">
-        <v>21</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="23">
+      <c r="B23" s="20">
         <v>22</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B23" s="23">
+      <c r="C23" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="I23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="20">
         <v>23</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="25"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="23">
-        <v>24</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="23">
-        <v>25</v>
-      </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="23">
-        <v>26</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
+      <c r="C24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,372 +1795,372 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>66</v>
+      <c r="A1" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="41"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="30"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="30"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="31"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="37"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="44"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="31"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="9" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="32" t="s">
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="41"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="37"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="13" t="s">
+      <c r="C14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="13" t="s">
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="37"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="32" t="s">
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="32"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="32"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="31"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="40"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="44"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="40"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="37"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="31"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="31"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="31"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="31"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="31"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31"/>
+      <c r="A35" s="30"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="40"/>
+      <c r="A36" s="31"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TestData/Roles/Roles New TestData.xlsx
+++ b/TestData/Roles/Roles New TestData.xlsx
@@ -1023,7 +1023,7 @@
   <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:K24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
